--- a/Resources/Timing results.xlsx
+++ b/Resources/Timing results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>New Year's eve commit</t>
   </si>
@@ -34,12 +34,21 @@
   </si>
   <si>
     <t>slack /ns</t>
+  </si>
+  <si>
+    <t>Reduce to 16 V M's</t>
+  </si>
+  <si>
+    <t>Shrink Sstack and reduce to 16VM's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,12 +86,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,7 +472,7 @@
       <c r="I2">
         <v>90</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.01</v>
       </c>
       <c r="K2">
@@ -482,7 +492,7 @@
       <c r="C3">
         <v>34</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.03</v>
       </c>
       <c r="E3">
@@ -502,6 +512,82 @@
       </c>
       <c r="J3">
         <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E4">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E5">
+        <v>56</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G5">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I5">
+        <v>95</v>
+      </c>
+      <c r="J5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>2.4E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Timing results.xlsx
+++ b/Resources/Timing results.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
-  <si>
-    <t>New Year's eve commit</t>
-  </si>
-  <si>
-    <t>Shrink Sstack by 256 bits</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Iteration</t>
   </si>
@@ -36,10 +30,25 @@
     <t>slack /ns</t>
   </si>
   <si>
-    <t>Reduce to 16 V M's</t>
-  </si>
-  <si>
-    <t>Shrink Sstack and reduce to 16VM's</t>
+    <t>80 MHz</t>
+  </si>
+  <si>
+    <t>90 MHz</t>
+  </si>
+  <si>
+    <t>95 MHz</t>
+  </si>
+  <si>
+    <t>Reduce to 16 V M's, 100MHz</t>
+  </si>
+  <si>
+    <t>Shrink Sstack and reduce to 16VM's, 100MHz</t>
+  </si>
+  <si>
+    <t>Shrink Sstack by 256 bits, 100MHz</t>
+  </si>
+  <si>
+    <t>New Year's eve commit, 100MHz</t>
   </si>
 </sst>
 </file>
@@ -47,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +70,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,13 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,124 +412,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>3.2000000000000001E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E2">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>1.9E-2</v>
+        <v>0.221</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="H2">
-        <v>1.2E-2</v>
+        <v>0.185</v>
       </c>
       <c r="I2">
-        <v>90</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="K2">
-        <v>67</v>
-      </c>
-      <c r="L2">
-        <v>6.0000000000000001E-3</v>
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.03</v>
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>0.193</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="F3">
-        <v>7.0000000000000001E-3</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>3.0000000000000001E-3</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="I3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>2E-3</v>
+        <v>0.12</v>
+      </c>
+      <c r="K3">
+        <v>84</v>
+      </c>
+      <c r="L3">
+        <v>0.113</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -519,37 +537,37 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>6.7000000000000004E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E4">
-        <v>73</v>
-      </c>
-      <c r="F4">
-        <v>2.8000000000000001E-2</v>
+        <v>53</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.06</v>
       </c>
       <c r="G4">
-        <v>26</v>
-      </c>
-      <c r="H4">
-        <v>2.9000000000000001E-2</v>
+        <v>24</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.06</v>
       </c>
       <c r="I4">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="J4">
-        <v>2.4E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="L4">
-        <v>2.1999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -557,40 +575,152 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>4.7E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E5">
-        <v>56</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.04</v>
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I5">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E6">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G6">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I6">
         <v>95</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>45</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>87</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>77</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>90</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="K7" s="4">
+        <v>67</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+      <c r="J8">
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:L8">
+    <sortCondition descending="1" ref="B2:B8"/>
+    <sortCondition descending="1" ref="D2:D8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
